--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aciww-my.sharepoint.com/personal/denis_barritault_aciworldwide_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="13_ncr:40009_{7B432B07-4922-47D6-855F-7445CAABAE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91F00D1-493B-4CD1-821F-022C69CD5E85}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="13_ncr:40009_{7B432B07-4922-47D6-855F-7445CAABAE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9DB89D4-32AA-481D-9D9D-4C100CE2D2BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="004" sheetId="9" r:id="rId5"/>
     <sheet name="005" sheetId="10" r:id="rId6"/>
     <sheet name="006" sheetId="11" r:id="rId7"/>
-    <sheet name="007" sheetId="19" r:id="rId8"/>
+    <sheet name="007" sheetId="21" r:id="rId8"/>
     <sheet name="008" sheetId="12" r:id="rId9"/>
     <sheet name="009" sheetId="13" r:id="rId10"/>
     <sheet name="010" sheetId="14" r:id="rId11"/>
@@ -28,7 +28,7 @@
     <sheet name="012" sheetId="16" r:id="rId13"/>
     <sheet name="013" sheetId="17" r:id="rId14"/>
     <sheet name="014" sheetId="18" r:id="rId15"/>
-    <sheet name="015" sheetId="20" r:id="rId16"/>
+    <sheet name="015" sheetId="22" r:id="rId16"/>
     <sheet name="016 new day for you" sheetId="1" r:id="rId17"/>
     <sheet name="017 back to black" sheetId="3" r:id="rId18"/>
     <sheet name="018 you know I'm no good" sheetId="2" r:id="rId19"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="165">
   <si>
     <t>piano2</t>
   </si>
@@ -518,6 +518,21 @@
   </si>
   <si>
     <t>// YOU KNOW I'M NO GOOD - AMY WINEHOUSE</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C#7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D#7</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CCB64D-D5EF-416F-8649-22299CCA91BE}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2383,7 +2400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B91C984-D2E1-488B-BEE5-D71AE4495EA3}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2445,7 +2464,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -2476,7 +2495,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -2507,7 +2526,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2564,7 +2583,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -2595,7 +2614,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -2626,7 +2645,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -2683,7 +2702,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -2714,7 +2733,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -2745,7 +2764,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
@@ -2802,7 +2821,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -2833,7 +2852,7 @@
         <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>117</v>
@@ -2864,7 +2883,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>117</v>
@@ -2904,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -2921,7 +2940,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -2935,7 +2954,7 @@
         <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>93</v>
@@ -2952,7 +2971,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>50</v>
@@ -2966,7 +2985,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>93</v>
@@ -2983,7 +3002,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
@@ -3023,7 +3042,7 @@
         <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -3040,7 +3059,7 @@
         <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -3054,7 +3073,7 @@
         <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
@@ -3071,7 +3090,7 @@
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>26</v>
@@ -3085,7 +3104,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>96</v>
@@ -3102,7 +3121,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -3142,7 +3161,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -3159,7 +3178,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -3173,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>99</v>
@@ -3190,7 +3209,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>31</v>
@@ -3204,7 +3223,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
@@ -3221,7 +3240,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>31</v>
@@ -3261,7 +3280,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -3278,7 +3297,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -3292,7 +3311,7 @@
         <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>105</v>
@@ -3309,7 +3328,7 @@
         <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>106</v>
@@ -3323,7 +3342,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>105</v>
@@ -3340,7 +3359,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>106</v>
@@ -3364,7 +3383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE89451-6D37-40B0-8D3C-59A4EBAAF5EF}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3409,7 +3430,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -3426,7 +3447,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -3440,7 +3461,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
@@ -3457,7 +3478,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>110</v>
@@ -3471,7 +3492,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -3488,7 +3509,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>110</v>
@@ -3528,7 +3549,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -3545,7 +3566,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -3559,7 +3580,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -3576,7 +3597,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>111</v>
@@ -3590,7 +3611,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -3607,7 +3628,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
@@ -3647,7 +3668,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -3664,7 +3685,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -3678,7 +3699,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -3695,7 +3716,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>113</v>
@@ -3709,7 +3730,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -3726,7 +3747,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>113</v>
@@ -3766,7 +3787,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -3783,7 +3804,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -3797,7 +3818,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>117</v>
@@ -3814,7 +3835,7 @@
         <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>118</v>
@@ -3828,7 +3849,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>117</v>
@@ -3845,7 +3866,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>118</v>
@@ -3869,7 +3890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F6B55-E1DF-48D3-A0DD-D7F8133AACC3}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3897,7 +3920,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -3914,7 +3937,7 @@
         <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -3928,10 +3951,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -3945,7 +3968,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -3959,10 +3982,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
@@ -3976,7 +3999,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -3993,7 +4016,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
@@ -4016,7 +4039,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -4033,7 +4056,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -4047,10 +4070,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -4064,7 +4087,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -4078,10 +4101,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -4095,7 +4118,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -4112,7 +4135,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -4135,7 +4158,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -4152,7 +4175,7 @@
         <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -4166,10 +4189,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -4183,7 +4206,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -4197,10 +4220,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>100</v>
@@ -4214,7 +4237,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -4231,7 +4254,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>100</v>
@@ -4254,7 +4277,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -4271,7 +4294,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -4285,10 +4308,10 @@
         <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -4302,7 +4325,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>106</v>
@@ -4316,10 +4339,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>129</v>
@@ -4333,7 +4356,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>106</v>
@@ -4350,7 +4373,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>129</v>
@@ -4373,7 +4396,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -4390,7 +4413,7 @@
         <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -4404,10 +4427,10 @@
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -4421,7 +4444,7 @@
         <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
@@ -4435,10 +4458,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>94</v>
@@ -4452,7 +4475,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>110</v>
@@ -4469,7 +4492,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>94</v>
@@ -4492,7 +4515,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -4509,7 +4532,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -4523,10 +4546,10 @@
         <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -4540,7 +4563,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>111</v>
@@ -4554,10 +4577,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>97</v>
@@ -4571,7 +4594,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>111</v>
@@ -4588,7 +4611,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
@@ -4611,7 +4634,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -4628,7 +4651,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -4642,10 +4665,10 @@
         <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -4659,7 +4682,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>113</v>
@@ -4673,10 +4696,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>101</v>
@@ -4690,7 +4713,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>113</v>
@@ -4707,7 +4730,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>101</v>
@@ -4730,7 +4753,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -4747,7 +4770,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -4761,10 +4784,10 @@
         <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -4778,7 +4801,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>118</v>
@@ -4792,10 +4815,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>130</v>
@@ -4809,7 +4832,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>118</v>
@@ -4826,7 +4849,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>130</v>
@@ -4850,7 +4873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A1213E-A844-4C9B-8E18-89BE902C5308}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4878,7 +4903,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -4892,10 +4917,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -4909,10 +4934,10 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -4923,10 +4948,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -4940,10 +4965,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>51</v>
@@ -4957,7 +4982,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -4974,13 +4999,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -4997,7 +5022,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -5011,10 +5036,10 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -5028,10 +5053,10 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -5042,10 +5067,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -5059,10 +5084,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -5076,7 +5101,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -5093,13 +5118,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -5116,7 +5141,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -5130,10 +5155,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -5147,10 +5172,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -5161,10 +5186,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>100</v>
@@ -5178,10 +5203,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>114</v>
@@ -5195,7 +5220,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>100</v>
@@ -5212,13 +5237,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -5235,7 +5260,7 @@
         <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -5249,10 +5274,10 @@
         <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -5266,10 +5291,10 @@
         <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -5280,10 +5305,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>129</v>
@@ -5297,10 +5322,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>131</v>
@@ -5314,7 +5339,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>129</v>
@@ -5331,13 +5356,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -5351,10 +5376,10 @@
         <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -5368,10 +5393,10 @@
         <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -5382,13 +5407,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -5399,10 +5424,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>94</v>
@@ -5416,10 +5441,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>95</v>
@@ -5433,13 +5458,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>63</v>
@@ -5450,13 +5475,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>64</v>
@@ -5470,10 +5495,10 @@
         <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -5487,10 +5512,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -5501,13 +5526,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -5518,10 +5543,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>97</v>
@@ -5535,10 +5560,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>98</v>
@@ -5552,13 +5577,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -5569,13 +5594,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -5589,10 +5614,10 @@
         <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -5606,10 +5631,10 @@
         <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -5620,13 +5645,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -5637,10 +5662,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>101</v>
@@ -5654,10 +5679,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>102</v>
@@ -5671,13 +5696,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>71</v>
@@ -5688,13 +5713,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
@@ -5708,10 +5733,10 @@
         <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -5725,10 +5750,10 @@
         <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -5739,13 +5764,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -5756,10 +5781,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>130</v>
@@ -5773,10 +5798,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>132</v>
@@ -5790,13 +5815,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>127</v>
@@ -5807,13 +5832,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>128</v>
@@ -5831,7 +5856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C634C79A-830D-4981-84C7-49E8DCD2CEAC}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5856,10 +5883,10 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -5873,10 +5900,10 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -5887,13 +5914,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -5904,10 +5931,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>51</v>
@@ -5921,10 +5948,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -5938,13 +5965,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -5955,13 +5982,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -5975,10 +6002,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -5992,10 +6019,10 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -6006,13 +6033,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -6023,10 +6050,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -6040,10 +6067,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -6057,13 +6084,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>120</v>
@@ -6074,13 +6101,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -6094,10 +6121,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -6111,10 +6138,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -6125,13 +6152,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -6142,10 +6169,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>114</v>
@@ -6159,10 +6186,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>115</v>
@@ -6176,13 +6203,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -6193,13 +6220,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -6213,10 +6240,10 @@
         <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -6230,10 +6257,10 @@
         <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -6244,13 +6271,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -6261,10 +6288,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>131</v>
@@ -6278,10 +6305,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>133</v>
@@ -6295,13 +6322,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -6312,13 +6339,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -6332,10 +6359,10 @@
         <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -6346,13 +6373,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -6363,13 +6390,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -6380,10 +6407,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>95</v>
@@ -6397,13 +6424,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>62</v>
@@ -6414,13 +6441,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>63</v>
@@ -6431,13 +6458,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>64</v>
@@ -6451,10 +6478,10 @@
         <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -6465,13 +6492,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -6482,13 +6509,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -6499,10 +6526,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -6516,13 +6543,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>44</v>
@@ -6533,13 +6560,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -6550,13 +6577,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -6570,10 +6597,10 @@
         <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -6584,13 +6611,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -6601,13 +6628,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -6618,10 +6645,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>102</v>
@@ -6635,13 +6662,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>70</v>
@@ -6652,13 +6679,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>71</v>
@@ -6669,13 +6696,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
@@ -6689,10 +6716,10 @@
         <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -6703,13 +6730,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -6720,13 +6747,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -6737,10 +6764,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>132</v>
@@ -6754,13 +6781,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -6771,13 +6798,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>127</v>
@@ -6788,13 +6815,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>128</v>
@@ -6813,7 +6840,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6839,10 +6866,10 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -6853,13 +6880,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -6870,13 +6897,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -6887,10 +6914,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -6904,13 +6931,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -6921,13 +6948,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -6938,13 +6965,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -6958,10 +6985,10 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -6972,13 +6999,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -6989,13 +7016,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -7006,10 +7033,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -7023,13 +7050,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>119</v>
@@ -7040,13 +7067,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>120</v>
@@ -7057,13 +7084,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -7077,10 +7104,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -7091,13 +7118,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -7108,13 +7135,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -7125,10 +7152,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>115</v>
@@ -7142,13 +7169,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -7159,13 +7186,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -7176,13 +7203,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -7196,10 +7223,10 @@
         <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -7210,13 +7237,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -7227,13 +7254,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -7244,10 +7271,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>133</v>
@@ -7261,13 +7288,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
@@ -7278,13 +7305,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -7295,13 +7322,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -7316,10 +7343,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1700BF-FA02-43D6-B27E-ED3EC6D0EC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C967FD60-85C4-4CAF-8EEA-585CFB367224}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7857,7 +7886,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -7888,7 +7917,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>93</v>
@@ -7919,7 +7948,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>93</v>
@@ -7976,7 +8005,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -8007,7 +8036,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>96</v>
@@ -8038,7 +8067,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -8095,7 +8124,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -8126,7 +8155,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>99</v>
@@ -8157,7 +8186,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -8214,7 +8243,7 @@
         <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -8245,7 +8274,7 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>105</v>
@@ -8276,7 +8305,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>105</v>
@@ -11814,7 +11843,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12964,7 +12993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC931251-1CA1-49F3-BE07-1D170DA29038}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14787,7 +14816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A6132-A8C6-465E-9654-B3593844F1CE}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -14849,7 +14880,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -14880,7 +14911,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -14911,7 +14942,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -14968,7 +14999,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -14999,7 +15030,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -15030,7 +15061,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -15087,7 +15118,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -15118,7 +15149,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -15149,7 +15180,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
@@ -15206,7 +15237,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -15237,7 +15268,7 @@
         <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>117</v>
@@ -15268,7 +15299,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>117</v>
@@ -15325,7 +15356,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -15356,7 +15387,7 @@
         <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>50</v>
@@ -15387,7 +15418,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
@@ -15444,7 +15475,7 @@
         <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -15475,7 +15506,7 @@
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>26</v>
@@ -15506,7 +15537,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -15563,7 +15594,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -15594,7 +15625,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>31</v>
@@ -15625,7 +15656,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>31</v>
@@ -15682,7 +15713,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -15713,7 +15744,7 @@
         <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>106</v>
@@ -15744,7 +15775,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>106</v>
@@ -15769,7 +15800,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15815,7 +15846,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -15832,7 +15863,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -15846,7 +15877,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
@@ -15863,7 +15894,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>110</v>
@@ -15877,7 +15908,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -15894,7 +15925,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>110</v>
@@ -15934,7 +15965,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -15951,7 +15982,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -15965,7 +15996,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -15982,7 +16013,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>111</v>
@@ -15996,7 +16027,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -16013,7 +16044,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
@@ -16053,7 +16084,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -16070,7 +16101,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -16084,7 +16115,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -16101,7 +16132,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>113</v>
@@ -16115,7 +16146,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -16132,7 +16163,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>113</v>
@@ -16172,7 +16203,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -16189,7 +16220,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -16203,7 +16234,7 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>117</v>
@@ -16220,7 +16251,7 @@
         <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>118</v>
@@ -16234,7 +16265,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>117</v>
@@ -16251,7 +16282,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>118</v>
@@ -16275,8 +16306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBAFF1-B660-480F-9A2E-2D99FC2208F3}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16305,7 +16336,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -16322,7 +16353,7 @@
         <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -16336,10 +16367,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -16353,7 +16384,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -16367,10 +16398,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
@@ -16384,7 +16415,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -16401,7 +16432,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
@@ -16424,7 +16455,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -16441,7 +16472,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -16455,10 +16486,10 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -16472,7 +16503,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -16486,10 +16517,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -16503,7 +16534,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -16520,7 +16551,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -16543,7 +16574,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -16560,7 +16591,7 @@
         <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -16574,10 +16605,10 @@
         <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -16591,7 +16622,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -16605,10 +16636,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>100</v>
@@ -16622,7 +16653,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -16639,7 +16670,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>100</v>
@@ -16662,7 +16693,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -16679,7 +16710,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -16693,10 +16724,10 @@
         <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -16710,7 +16741,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>106</v>
@@ -16724,10 +16755,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>129</v>
@@ -16741,7 +16772,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>106</v>
@@ -16758,7 +16789,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>129</v>
@@ -16781,7 +16812,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -16798,7 +16829,7 @@
         <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -16812,10 +16843,10 @@
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -16829,7 +16860,7 @@
         <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
@@ -16843,10 +16874,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>94</v>
@@ -16860,7 +16891,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>110</v>
@@ -16877,7 +16908,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>94</v>
@@ -16900,7 +16931,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -16917,7 +16948,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -16931,10 +16962,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -16948,7 +16979,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>111</v>
@@ -16962,10 +16993,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>97</v>
@@ -16979,7 +17010,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>111</v>
@@ -16996,7 +17027,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
@@ -17019,7 +17050,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -17036,7 +17067,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -17050,10 +17081,10 @@
         <v>28</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -17067,7 +17098,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>113</v>
@@ -17081,10 +17112,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>101</v>
@@ -17098,7 +17129,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>113</v>
@@ -17115,7 +17146,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>101</v>
@@ -17138,7 +17169,7 @@
         <v>114</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -17155,7 +17186,7 @@
         <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -17169,10 +17200,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -17186,7 +17217,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>118</v>
@@ -17200,10 +17231,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>130</v>
@@ -17217,7 +17248,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>118</v>
@@ -17234,7 +17265,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>130</v>
@@ -17258,7 +17289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3254FF-3AA6-436F-AA6C-E85D875F9CD9}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -17286,7 +17319,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -17300,10 +17333,10 @@
         <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -17317,10 +17350,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -17331,10 +17364,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -17348,10 +17381,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>51</v>
@@ -17365,7 +17398,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -17382,13 +17415,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -17405,7 +17438,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -17419,10 +17452,10 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -17436,10 +17469,10 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -17450,10 +17483,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -17467,10 +17500,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -17484,7 +17517,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -17501,13 +17534,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -17524,7 +17557,7 @@
         <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -17538,10 +17571,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -17555,10 +17588,10 @@
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -17569,10 +17602,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>100</v>
@@ -17586,10 +17619,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>114</v>
@@ -17603,7 +17636,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>100</v>
@@ -17620,13 +17653,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -17643,7 +17676,7 @@
         <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -17657,10 +17690,10 @@
         <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -17674,10 +17707,10 @@
         <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -17688,10 +17721,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>129</v>
@@ -17705,10 +17738,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>131</v>
@@ -17722,7 +17755,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>129</v>
@@ -17739,13 +17772,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -17762,7 +17795,7 @@
         <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -17776,10 +17809,10 @@
         <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -17793,10 +17826,10 @@
         <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -17807,10 +17840,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>94</v>
@@ -17824,10 +17857,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>95</v>
@@ -17841,7 +17874,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>94</v>
@@ -17858,13 +17891,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>64</v>
@@ -17881,7 +17914,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -17895,10 +17928,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -17912,10 +17945,10 @@
         <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -17926,10 +17959,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>97</v>
@@ -17943,10 +17976,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>98</v>
@@ -17960,7 +17993,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
@@ -17977,13 +18010,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -18000,7 +18033,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -18014,10 +18047,10 @@
         <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -18031,10 +18064,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -18045,10 +18078,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>101</v>
@@ -18062,10 +18095,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>102</v>
@@ -18079,7 +18112,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>101</v>
@@ -18096,13 +18129,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
@@ -18119,7 +18152,7 @@
         <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -18133,10 +18166,10 @@
         <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -18150,10 +18183,10 @@
         <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -18164,10 +18197,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>130</v>
@@ -18181,10 +18214,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>132</v>
@@ -18198,7 +18231,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>130</v>
@@ -18215,13 +18248,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>128</v>
@@ -18239,7 +18272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D9B20-584D-4EEA-91BA-7001A3664D5F}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -18264,10 +18299,10 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -18281,10 +18316,10 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -18295,13 +18330,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -18312,10 +18347,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>51</v>
@@ -18329,10 +18364,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
@@ -18346,13 +18381,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -18363,13 +18398,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -18383,10 +18418,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -18400,10 +18435,10 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -18414,13 +18449,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -18431,10 +18466,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -18448,10 +18483,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -18465,13 +18500,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>120</v>
@@ -18482,13 +18517,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -18502,10 +18537,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -18519,10 +18554,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -18533,13 +18568,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -18550,10 +18585,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>114</v>
@@ -18567,10 +18602,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>115</v>
@@ -18584,13 +18619,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -18601,13 +18636,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -18621,10 +18656,10 @@
         <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -18638,10 +18673,10 @@
         <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -18652,13 +18687,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -18669,10 +18704,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>131</v>
@@ -18686,10 +18721,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>133</v>
@@ -18703,13 +18738,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -18720,13 +18755,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -18740,10 +18775,10 @@
         <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>58</v>
@@ -18754,13 +18789,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -18771,13 +18806,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -18788,10 +18823,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>95</v>
@@ -18805,13 +18840,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>62</v>
@@ -18822,13 +18857,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>63</v>
@@ -18839,13 +18874,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>64</v>
@@ -18859,10 +18894,10 @@
         <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>40</v>
@@ -18873,13 +18908,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>41</v>
@@ -18890,13 +18925,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -18907,10 +18942,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -18924,13 +18959,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>44</v>
@@ -18941,13 +18976,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>45</v>
@@ -18958,13 +18993,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -18978,10 +19013,10 @@
         <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -18992,13 +19027,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -19009,13 +19044,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -19026,10 +19061,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>102</v>
@@ -19043,13 +19078,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>70</v>
@@ -19060,13 +19095,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>71</v>
@@ -19077,13 +19112,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
@@ -19097,10 +19132,10 @@
         <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>122</v>
@@ -19111,13 +19146,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>123</v>
@@ -19128,13 +19163,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -19145,10 +19180,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>132</v>
@@ -19162,13 +19197,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -19179,13 +19214,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>127</v>
@@ -19196,13 +19231,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>128</v>
@@ -19220,7 +19255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BDBEE-CFFE-4ECA-98E5-0A5832E2911F}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -19245,10 +19282,10 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -19259,13 +19296,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -19276,13 +19313,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -19293,10 +19330,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -19310,13 +19347,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -19327,13 +19364,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -19344,13 +19381,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -19364,10 +19401,10 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
@@ -19378,13 +19415,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -19395,13 +19432,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>83</v>
@@ -19412,10 +19449,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -19429,13 +19466,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>119</v>
@@ -19446,13 +19483,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>120</v>
@@ -19463,13 +19500,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>121</v>
@@ -19483,10 +19520,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -19497,13 +19534,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -19514,13 +19551,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -19531,10 +19568,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>115</v>
@@ -19548,13 +19585,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -19565,13 +19602,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
@@ -19582,13 +19619,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -19602,10 +19639,10 @@
         <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -19616,13 +19653,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -19633,13 +19670,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -19650,10 +19687,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>133</v>
@@ -19667,13 +19704,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
@@ -19684,13 +19721,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -19701,13 +19738,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -19722,7 +19759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3087D2-5377-4714-B97A-F9068A66A873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65BE20-9BDB-48B6-BDE2-248C23AD3190}">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20706,7 +20743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5935EC14-C5DF-4CFA-B9C7-245D19433ED8}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -21244,7 +21283,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -21275,7 +21314,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>93</v>
@@ -21306,7 +21345,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>93</v>
@@ -21363,7 +21402,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -21394,7 +21433,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>96</v>
@@ -21425,7 +21464,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -21482,7 +21521,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -21513,7 +21552,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>99</v>
@@ -21544,7 +21583,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -21601,7 +21640,7 @@
         <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>124</v>
@@ -21632,7 +21671,7 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>105</v>
@@ -21663,7 +21702,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>105</v>
